--- a/biology/Médecine/Landrum_Brewer_Shettles/Landrum_Brewer_Shettles.xlsx
+++ b/biology/Médecine/Landrum_Brewer_Shettles/Landrum_Brewer_Shettles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Landrum Brewer Shettles, né le 21 novembre 1909 et mort le  6 février 2003, est un biologiste, chercheur à l'université Columbia qui a été aux États-Unis, pionnier dans le domaine de la fécondation in vitro.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Shettles a été élevé dans le Pontotoc dans le  Mississippi avant de rejoindre l'université Columbia.
 En 1951, il reproduit l'expérience de Rock-Menkin en fertilisant artificiellement des ovules. En 1954 il bénéficie de la bourse d'études (Prix Markle) annuellement décerné à un scientifique de valeur de l'Université Columbia.
 En 1960 Shettles publie Ovum Humanum, ouvrage contenant des photographies en couleur des œufs humains fécondés à différents stades de développement. 
 Il est à l'origine de la première tentative déclarée aux États-Unis de fertilisation in vitro, mais il a mis fin à son expérience (ce qui a conduit à des poursuites judiciaires de la part des donneurs de sperme et de l'ovule).
-Il développe dans les années 1960 la méthode Shettles (en), technique du choix du sexe  basée sur les dates des rapports sexuels[1] et la position sexuelle (levrette ou missionnaire)[2].
+Il développe dans les années 1960 la méthode Shettles (en), technique du choix du sexe  basée sur les dates des rapports sexuels et la position sexuelle (levrette ou missionnaire).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Landrum B. Shettles et David M. Rorvik, How to Choose the Sex of Your Baby : The methode best supported by scientific evidence, New York, Broadway Books, 2006, 6e éd., 256 p. (ISBN 978-0-307-78617-3, lire en ligne)
 Ovum Humanum, Hafner Pub. Co., 1960
